--- a/DCISM_WBRMSystem/file/temp_inventory/LB 445 (124 items).xlsx
+++ b/DCISM_WBRMSystem/file/temp_inventory/LB 445 (124 items).xlsx
@@ -144,7 +144,7 @@
     <t>LB 445</t>
   </si>
   <si>
-    <t>6/11/2020</t>
+    <t>8/13/2020</t>
   </si>
   <si>
     <t>Mouse</t>
@@ -30293,7 +30293,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="64iDALXdaqBht2tp6e06TlBcxyEvMvP48eKH+AS07aHeUeOolfMsXfIxOzmVQMwMfPXYeWEuXeyzGH4LWz7X6g==" saltValue="HhAPukoAv6gWo8EFEzecCg==" spinCount="100000" sheet="1" objects="1" scenarios="1" pivotTables="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="gcQd5A0SUlTEBfWuSSxEc2VXg+juH7BWQS2GHpg9ZBC7kCMYS0HsHroYtVE8YBbO7Ttq22fA5PCqmiD1FX/21A==" saltValue="VA1JgN+H8UsBsDI6XIgFFw==" spinCount="100000" sheet="1" objects="1" scenarios="1" pivotTables="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
   <extLst/>
